--- a/Experiments/Sprint03/S03-ReleaseTest/Results/S03-ReleaseTest-Results.xlsx
+++ b/Experiments/Sprint03/S03-ReleaseTest/Results/S03-ReleaseTest-Results.xlsx
@@ -8,26 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hons-moorhouse-p\Experiments\Sprint03\S03-ReleaseTest\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6A7EB4-78CB-4DF6-A6E8-D8E02783CCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8F9A75-715C-41FD-9848-D4D19CCC1322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1000iters" sheetId="3" r:id="rId1"/>
-    <sheet name="100iters" sheetId="1" r:id="rId2"/>
-    <sheet name="10iters" sheetId="2" r:id="rId3"/>
+    <sheet name="Analysis" sheetId="4" r:id="rId1"/>
+    <sheet name="1000iters" sheetId="3" r:id="rId2"/>
+    <sheet name="100iters" sheetId="1" r:id="rId3"/>
+    <sheet name="10iters" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1000iters'!$A$1:$E$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'100iters'!$A$1:$E$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10iters'!$A$1:$E$101</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="110">
   <si>
     <t>testcase</t>
   </si>
@@ -345,13 +362,28 @@
   </si>
   <si>
     <t>3pte_1skf</t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>Q Score</t>
+  </si>
+  <si>
+    <t>Time Elapsed (ms)</t>
+  </si>
+  <si>
+    <t>Failure Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="173" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,16 +391,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -376,12 +422,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,1730 +746,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D6258D-5017-4386-AB7D-BAE0207F7974}">
-  <dimension ref="A1:E101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286EE040-DB08-4563-B107-7824273B35AB}">
+  <dimension ref="I3:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="9.140625" style="1"/>
+    <col min="9" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>275829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0.155</v>
-      </c>
-      <c r="D3">
-        <v>0.155</v>
-      </c>
-      <c r="E3">
-        <v>246533</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D4">
-        <v>1.6E-2</v>
-      </c>
-      <c r="E4">
-        <v>181918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="D5">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="E5">
-        <v>173215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="3" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I4" s="2">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="D6">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="E6">
-        <v>424531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="D7">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="E7">
-        <v>124999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="D8">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="E8">
-        <v>135334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="D9">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E9">
-        <v>193881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>342517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="D11">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="E11">
-        <v>59547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>0.156</v>
-      </c>
-      <c r="D12">
-        <v>0.156</v>
-      </c>
-      <c r="E12">
-        <v>130381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="D13">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E13">
-        <v>152604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>0.186</v>
-      </c>
-      <c r="D14">
-        <v>0.186</v>
-      </c>
-      <c r="E14">
-        <v>145653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>0.157</v>
-      </c>
-      <c r="D15">
-        <v>0.157</v>
-      </c>
-      <c r="E15">
-        <v>117627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="D16">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="E16">
-        <v>189113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>1.84E-2</v>
-      </c>
-      <c r="D17">
-        <v>1.84E-2</v>
-      </c>
-      <c r="E17">
-        <v>236533</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>0.123</v>
-      </c>
-      <c r="D18">
-        <v>0.123</v>
-      </c>
-      <c r="E18">
-        <v>95030</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>0.107</v>
-      </c>
-      <c r="D19">
-        <v>0.107</v>
-      </c>
-      <c r="E19">
-        <v>135511</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="D20">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E20">
-        <v>102905</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="D21">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="E21">
-        <v>27366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>4.53E-2</v>
-      </c>
-      <c r="D22">
-        <v>4.53E-2</v>
-      </c>
-      <c r="E22">
-        <v>238327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>220956</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>2.76E-2</v>
-      </c>
-      <c r="D24">
-        <v>2.76E-2</v>
-      </c>
-      <c r="E24">
-        <v>217510</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>4.65E-2</v>
-      </c>
-      <c r="D25">
-        <v>4.65E-2</v>
-      </c>
-      <c r="E25">
-        <v>104136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>4.6399999999999997E-2</v>
-      </c>
-      <c r="D26">
-        <v>4.6399999999999997E-2</v>
-      </c>
-      <c r="E26">
-        <v>159206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>77725</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>129721</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>8.6800000000000002E-2</v>
-      </c>
-      <c r="D29">
-        <v>8.6800000000000002E-2</v>
-      </c>
-      <c r="E29">
-        <v>204068</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30">
-        <v>0.12</v>
-      </c>
-      <c r="D30">
-        <v>0.12</v>
-      </c>
-      <c r="E30">
-        <v>274486</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <v>0.02</v>
-      </c>
-      <c r="D31">
-        <v>0.02</v>
-      </c>
-      <c r="E31">
-        <v>197366</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="D32">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="E32">
-        <v>197991</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>1.32E-2</v>
-      </c>
-      <c r="D33">
-        <v>1.32E-2</v>
-      </c>
-      <c r="E33">
-        <v>97761</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="D34">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="E34">
-        <v>155292</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35">
-        <v>0.1</v>
-      </c>
-      <c r="D35">
-        <v>0.1</v>
-      </c>
-      <c r="E35">
-        <v>191179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <v>1.11E-2</v>
-      </c>
-      <c r="D36">
-        <v>1.11E-2</v>
-      </c>
-      <c r="E36">
-        <v>173538</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>369907</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="D38">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="E38">
-        <v>274599</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="D39">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="E39">
-        <v>151548</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40">
-        <v>9.64E-2</v>
-      </c>
-      <c r="D40">
-        <v>9.64E-2</v>
-      </c>
-      <c r="E40">
-        <v>83653</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41">
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="D41">
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="E41">
-        <v>240612</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="D42">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="E42">
-        <v>101701</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="D43">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="E43">
-        <v>134006</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>0.12</v>
-      </c>
-      <c r="D44">
-        <v>0.12</v>
-      </c>
-      <c r="E44">
-        <v>130888</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>182035</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>284975</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>197629</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="D48">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="E48">
-        <v>103890</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>263991</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50">
-        <v>6.1199999999999997E-2</v>
-      </c>
-      <c r="D50">
-        <v>6.1199999999999997E-2</v>
-      </c>
-      <c r="E50">
-        <v>275133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="D51">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="E51">
-        <v>95453</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>80407</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="D53">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="E53">
-        <v>35259</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54">
-        <v>7.0300000000000001E-2</v>
-      </c>
-      <c r="D54">
-        <v>7.0300000000000001E-2</v>
-      </c>
-      <c r="E54">
-        <v>228472</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55">
-        <v>0.3</v>
-      </c>
-      <c r="D55">
-        <v>0.3</v>
-      </c>
-      <c r="E55">
-        <v>62517</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>356388</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57">
-        <v>7.4099999999999999E-3</v>
-      </c>
-      <c r="D57">
-        <v>7.4099999999999999E-3</v>
-      </c>
-      <c r="E57">
-        <v>229498</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="D58">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="E58">
-        <v>172874</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="D59">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="E59">
-        <v>293892</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60">
-        <v>0.308</v>
-      </c>
-      <c r="D60">
-        <v>0.308</v>
-      </c>
-      <c r="E60">
-        <v>52210</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="D61">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="E61">
-        <v>233233</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62">
-        <v>8.5599999999999996E-2</v>
-      </c>
-      <c r="D62">
-        <v>8.5599999999999996E-2</v>
-      </c>
-      <c r="E62">
-        <v>287785</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63">
-        <v>0.193</v>
-      </c>
-      <c r="D63">
-        <v>0.193</v>
-      </c>
-      <c r="E63">
-        <v>75658</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="D64">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="E64">
-        <v>117460</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="D65">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="E65">
-        <v>203159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66">
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="D66">
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="E66">
-        <v>231999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="D67">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="E67">
-        <v>132201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D68">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="E68">
-        <v>133461</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69">
-        <v>9.3799999999999994E-2</v>
-      </c>
-      <c r="D69">
-        <v>9.3799999999999994E-2</v>
-      </c>
-      <c r="E69">
-        <v>62117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="D70">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="E70">
-        <v>180826</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71">
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="D71">
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="E71">
-        <v>171505</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72">
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="D72">
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="E72">
-        <v>183949</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73">
-        <v>7.6499999999999999E-2</v>
-      </c>
-      <c r="D73">
-        <v>7.6499999999999999E-2</v>
-      </c>
-      <c r="E73">
-        <v>120387</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>493041</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75">
-        <v>1.66E-2</v>
-      </c>
-      <c r="D75">
-        <v>1.66E-2</v>
-      </c>
-      <c r="E75">
-        <v>233950</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76">
-        <v>0.18</v>
-      </c>
-      <c r="D76">
-        <v>0.18</v>
-      </c>
-      <c r="E76">
-        <v>157272</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>71553</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D78">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E78">
-        <v>78442</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>207778</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="D80">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="E80">
-        <v>27880</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>220615</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>169993</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D83">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="E83">
-        <v>374226</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84">
-        <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="D84">
-        <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="E84">
-        <v>290934</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D85">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="E85">
-        <v>134863</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86">
-        <v>4.7800000000000002E-2</v>
-      </c>
-      <c r="D86">
-        <v>4.7800000000000002E-2</v>
-      </c>
-      <c r="E86">
-        <v>226279</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87">
-        <v>0.12</v>
-      </c>
-      <c r="D87">
-        <v>0.12</v>
-      </c>
-      <c r="E87">
-        <v>85944</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="D88">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="E88">
-        <v>259997</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89">
-        <v>1.46E-2</v>
-      </c>
-      <c r="D89">
-        <v>1.46E-2</v>
-      </c>
-      <c r="E89">
-        <v>223273</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>171175</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>320411</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="D92">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="E92">
-        <v>189656</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>207657</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="D94">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="E94">
-        <v>157206</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="D95">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="E95">
-        <v>159258</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="J4" s="6">
+        <v>6.9888599999999967E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2421.1999999999998</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
         <v>100</v>
       </c>
-      <c r="B96" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="D96">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="E96">
-        <v>139823</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>101</v>
-      </c>
-      <c r="B97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="D97">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="E97">
-        <v>88180</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>102</v>
-      </c>
-      <c r="B98" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="D98">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="E98">
-        <v>211318</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>103</v>
-      </c>
-      <c r="B99" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>98415</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>104</v>
-      </c>
-      <c r="B100" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100">
-        <v>0.11</v>
-      </c>
-      <c r="D100">
-        <v>0.11</v>
-      </c>
-      <c r="E100">
-        <v>214613</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>105</v>
-      </c>
-      <c r="B101" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>255678</v>
+      <c r="J5" s="6">
+        <v>8.0178000000000013E-2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>16964.48</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="4">
+        <v>9.7822099999999995E-2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>181349.96</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2393,16 +824,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D6258D-5017-4386-AB7D-BAE0207F7974}">
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G2" sqref="G2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2418,8 +859,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2433,10 +883,21 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>27851</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>275829</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1">
+        <f>AVERAGE(C:C)</f>
+        <v>9.7822099999999995E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <f>AVERAGE(E:E)</f>
+        <v>181349.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2444,16 +905,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.17199999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="D3">
-        <v>0.17199999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="E3">
-        <v>24239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>246533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2461,16 +922,16 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>1.0699999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D4">
-        <v>1.0699999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E4">
-        <v>17100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>181918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2484,10 +945,10 @@
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="E5">
-        <v>15036</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>173215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2495,16 +956,16 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>6.0400000000000002E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="D6">
-        <v>6.0400000000000002E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="E6">
-        <v>40440</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>424531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2512,16 +973,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>4.8000000000000001E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D7">
-        <v>4.8000000000000001E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E7">
-        <v>9992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2529,16 +990,16 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.6800000000000001E-2</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="D8">
-        <v>2.6800000000000001E-2</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="E8">
-        <v>12385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2546,16 +1007,16 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0.114</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="D9">
-        <v>0.114</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="E9">
-        <v>17407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>193881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2569,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>33506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>342517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2580,16 +1041,16 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.11</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="D11">
-        <v>0.11</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="E11">
-        <v>5118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2597,16 +1058,16 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>5.1900000000000002E-2</v>
+        <v>0.156</v>
       </c>
       <c r="D12">
-        <v>5.1900000000000002E-2</v>
+        <v>0.156</v>
       </c>
       <c r="E12">
-        <v>12513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2614,16 +1075,16 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>2.1999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D13">
-        <v>2.1999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E13">
-        <v>14841</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>152604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2631,16 +1092,16 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>8.9700000000000002E-2</v>
+        <v>0.186</v>
       </c>
       <c r="D14">
-        <v>8.9700000000000002E-2</v>
+        <v>0.186</v>
       </c>
       <c r="E14">
-        <v>12828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2648,16 +1109,16 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>0.157</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>0.157</v>
       </c>
       <c r="E15">
-        <v>10819</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2665,13 +1126,13 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="E16">
-        <v>17448</v>
+        <v>189113</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2682,13 +1143,13 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.84E-2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1.84E-2</v>
       </c>
       <c r="E17">
-        <v>22555</v>
+        <v>236533</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2699,13 +1160,13 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>0.17499999999999999</v>
+        <v>0.123</v>
       </c>
       <c r="D18">
-        <v>0.17499999999999999</v>
+        <v>0.123</v>
       </c>
       <c r="E18">
-        <v>8512</v>
+        <v>95030</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2716,13 +1177,13 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>0.12</v>
+        <v>0.107</v>
       </c>
       <c r="D19">
-        <v>0.12</v>
+        <v>0.107</v>
       </c>
       <c r="E19">
-        <v>13194</v>
+        <v>135511</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2733,13 +1194,13 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>1.2800000000000001E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="D20">
-        <v>1.2800000000000001E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="E20">
-        <v>9034</v>
+        <v>102905</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2750,13 +1211,13 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>0.17599999999999999</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="D21">
-        <v>0.17599999999999999</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="E21">
-        <v>3419</v>
+        <v>27366</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2767,13 +1228,13 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>6.7900000000000002E-2</v>
+        <v>4.53E-2</v>
       </c>
       <c r="D22">
-        <v>6.7900000000000002E-2</v>
+        <v>4.53E-2</v>
       </c>
       <c r="E22">
-        <v>22743</v>
+        <v>238327</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2790,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21733</v>
+        <v>220956</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2801,13 +1262,13 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>8.6199999999999999E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="D24">
-        <v>8.6199999999999999E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="E24">
-        <v>20007</v>
+        <v>217510</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2818,13 +1279,13 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4.65E-2</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>4.65E-2</v>
       </c>
       <c r="E25">
-        <v>9267</v>
+        <v>104136</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2835,13 +1296,13 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>1.32E-2</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="D26">
-        <v>1.32E-2</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="E26">
-        <v>14285</v>
+        <v>159206</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2858,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>7081</v>
+        <v>77725</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2875,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>12940</v>
+        <v>129721</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2886,13 +1347,13 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>9.0300000000000005E-2</v>
+        <v>8.6800000000000002E-2</v>
       </c>
       <c r="D29">
-        <v>9.0300000000000005E-2</v>
+        <v>8.6800000000000002E-2</v>
       </c>
       <c r="E29">
-        <v>18211</v>
+        <v>204068</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2903,13 +1364,13 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <v>3.7400000000000003E-2</v>
+        <v>0.12</v>
       </c>
       <c r="D30">
-        <v>3.7400000000000003E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E30">
-        <v>26431</v>
+        <v>274486</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2920,13 +1381,13 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E31">
-        <v>19339</v>
+        <v>197366</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2937,13 +1398,13 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>7.4599999999999996E-3</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="D32">
-        <v>7.4599999999999996E-3</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="E32">
-        <v>18188</v>
+        <v>197991</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2954,13 +1415,13 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1.32E-2</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1.32E-2</v>
       </c>
       <c r="E33">
-        <v>9950</v>
+        <v>97761</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2971,13 +1432,13 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>0.33500000000000002</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D34">
-        <v>0.33500000000000002</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="E34">
-        <v>14708</v>
+        <v>155292</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2988,13 +1449,13 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D35">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="E35">
-        <v>16193</v>
+        <v>191179</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3005,13 +1466,13 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>2.7799999999999998E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="D36">
-        <v>2.7799999999999998E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="E36">
-        <v>16204</v>
+        <v>173538</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3028,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>36300</v>
+        <v>369907</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3039,13 +1500,13 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>5.9500000000000004E-3</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="D38">
-        <v>5.9500000000000004E-3</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="E38">
-        <v>25765</v>
+        <v>274599</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3056,13 +1517,13 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="E39">
-        <v>13686</v>
+        <v>151548</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3073,13 +1534,13 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>0.16900000000000001</v>
+        <v>9.64E-2</v>
       </c>
       <c r="D40">
-        <v>0.16900000000000001</v>
+        <v>9.64E-2</v>
       </c>
       <c r="E40">
-        <v>7849</v>
+        <v>83653</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3096,7 +1557,7 @@
         <v>2.3800000000000002E-2</v>
       </c>
       <c r="E41">
-        <v>23842</v>
+        <v>240612</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3107,13 +1568,13 @@
         <v>6</v>
       </c>
       <c r="C42">
-        <v>0.10199999999999999</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="D42">
-        <v>0.10199999999999999</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="E42">
-        <v>9119</v>
+        <v>101701</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3124,13 +1585,13 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>0.219</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="D43">
-        <v>0.219</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="E43">
-        <v>11206</v>
+        <v>134006</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3141,13 +1602,13 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>0.128</v>
+        <v>0.12</v>
       </c>
       <c r="D44">
-        <v>0.128</v>
+        <v>0.12</v>
       </c>
       <c r="E44">
-        <v>11242</v>
+        <v>130888</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3164,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>18228</v>
+        <v>182035</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3175,13 +1636,13 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>7.9399999999999991E-3</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>7.9399999999999991E-3</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>28092</v>
+        <v>284975</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3198,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>19801</v>
+        <v>197629</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3209,13 +1670,13 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <v>0.33</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="D48">
-        <v>0.33</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="E48">
-        <v>8881</v>
+        <v>103890</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3232,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>25888</v>
+        <v>263991</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3243,13 +1704,13 @@
         <v>6</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="E50">
-        <v>28019</v>
+        <v>275133</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3260,13 +1721,13 @@
         <v>6</v>
       </c>
       <c r="C51">
-        <v>0.23699999999999999</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="D51">
-        <v>0.23699999999999999</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="E51">
-        <v>8679</v>
+        <v>95453</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3283,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>6883</v>
+        <v>80407</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3294,13 +1755,13 @@
         <v>6</v>
       </c>
       <c r="C53">
-        <v>0.189</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="D53">
-        <v>0.189</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="E53">
-        <v>4169</v>
+        <v>35259</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3311,13 +1772,13 @@
         <v>6</v>
       </c>
       <c r="C54">
-        <v>9.5799999999999996E-2</v>
+        <v>7.0300000000000001E-2</v>
       </c>
       <c r="D54">
-        <v>9.5799999999999996E-2</v>
+        <v>7.0300000000000001E-2</v>
       </c>
       <c r="E54">
-        <v>20605</v>
+        <v>228472</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3328,13 +1789,13 @@
         <v>6</v>
       </c>
       <c r="C55">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="D55">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="E55">
-        <v>5535</v>
+        <v>62517</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3351,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>34438</v>
+        <v>356388</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3362,13 +1823,13 @@
         <v>6</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>7.4099999999999999E-3</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>7.4099999999999999E-3</v>
       </c>
       <c r="E57">
-        <v>23425</v>
+        <v>229498</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3379,13 +1840,13 @@
         <v>6</v>
       </c>
       <c r="C58">
-        <v>0.12</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="D58">
-        <v>0.12</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="E58">
-        <v>14907</v>
+        <v>172874</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3396,13 +1857,13 @@
         <v>6</v>
       </c>
       <c r="C59">
-        <v>8.1500000000000003E-2</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="D59">
-        <v>8.1500000000000003E-2</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="E59">
-        <v>28293</v>
+        <v>293892</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3413,13 +1874,13 @@
         <v>6</v>
       </c>
       <c r="C60">
-        <v>0.28799999999999998</v>
+        <v>0.308</v>
       </c>
       <c r="D60">
-        <v>0.28799999999999998</v>
+        <v>0.308</v>
       </c>
       <c r="E60">
-        <v>5729</v>
+        <v>52210</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3430,13 +1891,13 @@
         <v>6</v>
       </c>
       <c r="C61">
-        <v>4.8099999999999997E-2</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="D61">
-        <v>4.8099999999999997E-2</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="E61">
-        <v>21625</v>
+        <v>233233</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3447,13 +1908,13 @@
         <v>6</v>
       </c>
       <c r="C62">
-        <v>9.01E-2</v>
+        <v>8.5599999999999996E-2</v>
       </c>
       <c r="D62">
-        <v>9.01E-2</v>
+        <v>8.5599999999999996E-2</v>
       </c>
       <c r="E62">
-        <v>27612</v>
+        <v>287785</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3464,13 +1925,13 @@
         <v>6</v>
       </c>
       <c r="C63">
-        <v>0.24299999999999999</v>
+        <v>0.193</v>
       </c>
       <c r="D63">
-        <v>0.24299999999999999</v>
+        <v>0.193</v>
       </c>
       <c r="E63">
-        <v>6593</v>
+        <v>75658</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3481,13 +1942,13 @@
         <v>6</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="E64">
-        <v>10748</v>
+        <v>117460</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3498,13 +1959,13 @@
         <v>6</v>
       </c>
       <c r="C65">
-        <v>1.8700000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D65">
-        <v>1.8700000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="E65">
-        <v>18971</v>
+        <v>203159</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3515,13 +1976,13 @@
         <v>6</v>
       </c>
       <c r="C66">
-        <v>8.5699999999999998E-2</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="D66">
-        <v>8.5699999999999998E-2</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="E66">
-        <v>22284</v>
+        <v>231999</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3532,13 +1993,13 @@
         <v>6</v>
       </c>
       <c r="C67">
-        <v>0.215</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="D67">
-        <v>0.215</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="E67">
-        <v>11970</v>
+        <v>132201</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3549,13 +2010,13 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <v>0.193</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="D68">
-        <v>0.193</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="E68">
-        <v>12463</v>
+        <v>133461</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3566,13 +2027,13 @@
         <v>6</v>
       </c>
       <c r="C69">
-        <v>0.109</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="D69">
-        <v>0.109</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="E69">
-        <v>6045</v>
+        <v>62117</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3583,13 +2044,13 @@
         <v>6</v>
       </c>
       <c r="C70">
-        <v>0.05</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="D70">
-        <v>0.05</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="E70">
-        <v>15995</v>
+        <v>180826</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3600,13 +2061,13 @@
         <v>6</v>
       </c>
       <c r="C71">
-        <v>5.5199999999999999E-2</v>
+        <v>2.2100000000000002E-2</v>
       </c>
       <c r="D71">
-        <v>5.5199999999999999E-2</v>
+        <v>2.2100000000000002E-2</v>
       </c>
       <c r="E71">
-        <v>15700</v>
+        <v>171505</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3617,13 +2078,13 @@
         <v>6</v>
       </c>
       <c r="C72">
-        <v>7.5800000000000006E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="D72">
-        <v>7.5800000000000006E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="E72">
-        <v>17044</v>
+        <v>183949</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3634,13 +2095,13 @@
         <v>6</v>
       </c>
       <c r="C73">
-        <v>0.124</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="D73">
-        <v>0.124</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E73">
-        <v>11450</v>
+        <v>120387</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3657,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>49413</v>
+        <v>493041</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3668,13 +2129,13 @@
         <v>6</v>
       </c>
       <c r="C75">
-        <v>7.0499999999999993E-2</v>
+        <v>1.66E-2</v>
       </c>
       <c r="D75">
-        <v>7.0499999999999993E-2</v>
+        <v>1.66E-2</v>
       </c>
       <c r="E75">
-        <v>21428</v>
+        <v>233950</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3685,13 +2146,13 @@
         <v>6</v>
       </c>
       <c r="C76">
-        <v>8.0600000000000005E-2</v>
+        <v>0.18</v>
       </c>
       <c r="D76">
-        <v>8.0600000000000005E-2</v>
+        <v>0.18</v>
       </c>
       <c r="E76">
-        <v>14205</v>
+        <v>157272</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3708,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>6053</v>
+        <v>71553</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3719,13 +2180,13 @@
         <v>6</v>
       </c>
       <c r="C78">
-        <v>9.2600000000000002E-2</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D78">
-        <v>9.2600000000000002E-2</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E78">
-        <v>6429</v>
+        <v>78442</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3742,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>20217</v>
+        <v>207778</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3759,7 +2220,7 @@
         <v>0.63600000000000001</v>
       </c>
       <c r="E80">
-        <v>2851</v>
+        <v>27880</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3776,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>20312</v>
+        <v>220615</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3793,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>15707</v>
+        <v>169993</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3804,13 +2265,13 @@
         <v>6</v>
       </c>
       <c r="C83">
-        <v>7.9500000000000001E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D83">
-        <v>7.9500000000000001E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="E83">
-        <v>34973</v>
+        <v>374226</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3821,13 +2282,13 @@
         <v>6</v>
       </c>
       <c r="C84">
-        <v>9.2200000000000004E-2</v>
+        <v>5.0700000000000002E-2</v>
       </c>
       <c r="D84">
-        <v>9.2200000000000004E-2</v>
+        <v>5.0700000000000002E-2</v>
       </c>
       <c r="E84">
-        <v>25463</v>
+        <v>290934</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3838,13 +2299,13 @@
         <v>6</v>
       </c>
       <c r="C85">
-        <v>0.16800000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D85">
-        <v>0.16800000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="E85">
-        <v>11795</v>
+        <v>134863</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3855,13 +2316,13 @@
         <v>6</v>
       </c>
       <c r="C86">
-        <v>7.3499999999999998E-3</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="D86">
-        <v>7.3499999999999998E-3</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E86">
-        <v>20625</v>
+        <v>226279</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3872,13 +2333,13 @@
         <v>6</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E87">
-        <v>7859</v>
+        <v>85944</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3889,13 +2350,13 @@
         <v>6</v>
       </c>
       <c r="C88">
-        <v>0.13400000000000001</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="D88">
-        <v>0.13400000000000001</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="E88">
-        <v>25261</v>
+        <v>259997</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3906,13 +2367,13 @@
         <v>6</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1.46E-2</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>1.46E-2</v>
       </c>
       <c r="E89">
-        <v>20116</v>
+        <v>223273</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3929,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>14417</v>
+        <v>171175</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3946,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>29294</v>
+        <v>320411</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3957,13 +2418,13 @@
         <v>6</v>
       </c>
       <c r="C92">
-        <v>1.61E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="D92">
-        <v>1.61E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="E92">
-        <v>16993</v>
+        <v>189656</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3980,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>19454</v>
+        <v>207657</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3991,13 +2452,13 @@
         <v>6</v>
       </c>
       <c r="C94">
-        <v>0.17</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="D94">
-        <v>0.17</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E94">
-        <v>13531</v>
+        <v>157206</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4008,13 +2469,13 @@
         <v>6</v>
       </c>
       <c r="C95">
-        <v>9.6199999999999994E-2</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="D95">
-        <v>9.6199999999999994E-2</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="E95">
-        <v>13977</v>
+        <v>159258</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4025,13 +2486,13 @@
         <v>6</v>
       </c>
       <c r="C96">
-        <v>0.26400000000000001</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="D96">
-        <v>0.26400000000000001</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="E96">
-        <v>12453</v>
+        <v>139823</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4042,13 +2503,13 @@
         <v>6</v>
       </c>
       <c r="C97">
-        <v>0.35199999999999998</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="D97">
-        <v>0.35199999999999998</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="E97">
-        <v>7145</v>
+        <v>88180</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4059,13 +2520,13 @@
         <v>6</v>
       </c>
       <c r="C98">
-        <v>0.21099999999999999</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="D98">
-        <v>0.21099999999999999</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="E98">
-        <v>18849</v>
+        <v>211318</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4082,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>9473</v>
+        <v>98415</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4093,13 +2554,13 @@
         <v>6</v>
       </c>
       <c r="C100">
-        <v>0.10100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="D100">
-        <v>0.10100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E100">
-        <v>19026</v>
+        <v>214613</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4116,25 +2577,35 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>24531</v>
+        <v>255678</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E101" xr:uid="{85D6258D-5017-4386-AB7D-BAE0207F7974}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2947218-42EB-439A-9121-3BEFC4AD47EC}">
-  <dimension ref="A1:E101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="9" width="15" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4150,8 +2621,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4165,10 +2645,21 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27851</v>
+      </c>
+      <c r="G2" s="1">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1">
+        <f>AVERAGE(C:C)</f>
+        <v>8.0178000000000013E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <f>AVERAGE(E:E)</f>
+        <v>16964.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4176,16 +2667,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.221</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="D3">
-        <v>0.221</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="E3">
-        <v>3215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4193,16 +2684,16 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>5.3499999999999997E-3</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="D4">
-        <v>5.3499999999999997E-3</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="E4">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4210,16 +2701,16 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>3.7199999999999997E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="D5">
-        <v>3.7199999999999997E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="E5">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4227,16 +2718,16 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.10299999999999999</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="D6">
-        <v>0.10299999999999999</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="E6">
-        <v>4750</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4250,10 +2741,10 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E7">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -4261,16 +2752,16 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="E8">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -4278,16 +2769,16 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.114</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.114</v>
       </c>
       <c r="E9">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -4295,16 +2786,16 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>2.4799999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2.4799999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>3990</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4312,16 +2803,16 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.151</v>
+        <v>0.11</v>
       </c>
       <c r="D11">
-        <v>0.151</v>
+        <v>0.11</v>
       </c>
       <c r="E11">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -4329,16 +2820,16 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>2.9600000000000001E-2</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="D12">
-        <v>2.9600000000000001E-2</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="E12">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -4346,16 +2837,16 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>4.3999999999999997E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D13">
-        <v>4.3999999999999997E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E13">
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -4363,16 +2854,16 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>7.0499999999999993E-2</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="D14">
-        <v>7.0499999999999993E-2</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="E14">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -4386,10 +2877,10 @@
         <v>0.1</v>
       </c>
       <c r="E15">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -4403,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2332</v>
+        <v>17448</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4414,13 +2905,13 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>8.5900000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>8.5900000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2977</v>
+        <v>22555</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4431,13 +2922,13 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>9.6500000000000002E-2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D18">
-        <v>9.6500000000000002E-2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E18">
-        <v>1589</v>
+        <v>8512</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4448,13 +2939,13 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>9.3299999999999994E-2</v>
+        <v>0.12</v>
       </c>
       <c r="D19">
-        <v>9.3299999999999994E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E19">
-        <v>1910</v>
+        <v>13194</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4465,13 +2956,13 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="E20">
-        <v>1490</v>
+        <v>9034</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4482,13 +2973,13 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>0.32900000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="D21">
-        <v>0.32900000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="E21">
-        <v>960</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4499,13 +2990,13 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>3.0200000000000001E-2</v>
+        <v>6.7900000000000002E-2</v>
       </c>
       <c r="D22">
-        <v>3.0200000000000001E-2</v>
+        <v>6.7900000000000002E-2</v>
       </c>
       <c r="E22">
-        <v>3105</v>
+        <v>22743</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4522,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3004</v>
+        <v>21733</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4533,13 +3024,13 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>0.11700000000000001</v>
+        <v>8.6199999999999999E-2</v>
       </c>
       <c r="D24">
-        <v>0.11700000000000001</v>
+        <v>8.6199999999999999E-2</v>
       </c>
       <c r="E24">
-        <v>2541</v>
+        <v>20007</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4550,13 +3041,13 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>5.8099999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>5.8099999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1535</v>
+        <v>9267</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4567,13 +3058,13 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>3.9699999999999999E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="D26">
-        <v>3.9699999999999999E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="E26">
-        <v>2131</v>
+        <v>14285</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4590,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1312</v>
+        <v>7081</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4607,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1973</v>
+        <v>12940</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4618,13 +3109,13 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>0.18099999999999999</v>
+        <v>9.0300000000000005E-2</v>
       </c>
       <c r="D29">
-        <v>0.18099999999999999</v>
+        <v>9.0300000000000005E-2</v>
       </c>
       <c r="E29">
-        <v>2630</v>
+        <v>18211</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4635,13 +3126,13 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <v>4.8099999999999997E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="D30">
-        <v>4.8099999999999997E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="E30">
-        <v>3180</v>
+        <v>26431</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4658,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>2605</v>
+        <v>19339</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4669,13 +3160,13 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>7.4599999999999996E-3</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>7.4599999999999996E-3</v>
       </c>
       <c r="E32">
-        <v>2500</v>
+        <v>18188</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4686,13 +3177,13 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>5.2600000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>5.2600000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1672</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4703,13 +3194,13 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>0.13100000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="D34">
-        <v>0.13100000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E34">
-        <v>2136</v>
+        <v>14708</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4720,13 +3211,13 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>0.17100000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="D35">
-        <v>0.17100000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="E35">
-        <v>2367</v>
+        <v>16193</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4737,13 +3228,13 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>1.11E-2</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="D36">
-        <v>1.11E-2</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="E36">
-        <v>2327</v>
+        <v>16204</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4760,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>4255</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4771,13 +3262,13 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>1.49E-2</v>
+        <v>5.9500000000000004E-3</v>
       </c>
       <c r="D38">
-        <v>1.49E-2</v>
+        <v>5.9500000000000004E-3</v>
       </c>
       <c r="E38">
-        <v>3375</v>
+        <v>25765</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4794,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1921</v>
+        <v>13686</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4805,13 +3296,13 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>0.18099999999999999</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="D40">
-        <v>0.18099999999999999</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="E40">
-        <v>1492</v>
+        <v>7849</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4822,13 +3313,13 @@
         <v>6</v>
       </c>
       <c r="C41">
-        <v>1.1900000000000001E-2</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="D41">
-        <v>1.1900000000000001E-2</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="E41">
-        <v>3107</v>
+        <v>23842</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4839,13 +3330,13 @@
         <v>6</v>
       </c>
       <c r="C42">
-        <v>0.161</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D42">
-        <v>0.161</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E42">
-        <v>1511</v>
+        <v>9119</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4856,13 +3347,13 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>0.159</v>
+        <v>0.219</v>
       </c>
       <c r="D43">
-        <v>0.159</v>
+        <v>0.219</v>
       </c>
       <c r="E43">
-        <v>1707</v>
+        <v>11206</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4873,13 +3364,13 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>0.14399999999999999</v>
+        <v>0.128</v>
       </c>
       <c r="D44">
-        <v>0.14399999999999999</v>
+        <v>0.128</v>
       </c>
       <c r="E44">
-        <v>1730</v>
+        <v>11242</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4896,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>2501</v>
+        <v>18228</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4913,7 +3404,7 @@
         <v>7.9399999999999991E-3</v>
       </c>
       <c r="E46">
-        <v>3517</v>
+        <v>28092</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4930,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>2640</v>
+        <v>19801</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4941,13 +3432,13 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <v>0.191</v>
+        <v>0.33</v>
       </c>
       <c r="D48">
-        <v>0.191</v>
+        <v>0.33</v>
       </c>
       <c r="E48">
-        <v>1613</v>
+        <v>8881</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4964,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>3463</v>
+        <v>25888</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4981,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>3620</v>
+        <v>28019</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4992,13 +3483,13 @@
         <v>6</v>
       </c>
       <c r="C51">
-        <v>9.6500000000000002E-2</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="D51">
-        <v>9.6500000000000002E-2</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="E51">
-        <v>1437</v>
+        <v>8679</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -5015,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1363</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -5026,13 +3517,13 @@
         <v>6</v>
       </c>
       <c r="C53">
-        <v>9.01E-2</v>
+        <v>0.189</v>
       </c>
       <c r="D53">
-        <v>9.01E-2</v>
+        <v>0.189</v>
       </c>
       <c r="E53">
-        <v>1099</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -5043,13 +3534,13 @@
         <v>6</v>
       </c>
       <c r="C54">
-        <v>0.14699999999999999</v>
+        <v>9.5799999999999996E-2</v>
       </c>
       <c r="D54">
-        <v>0.14699999999999999</v>
+        <v>9.5799999999999996E-2</v>
       </c>
       <c r="E54">
-        <v>2941</v>
+        <v>20605</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -5060,13 +3551,13 @@
         <v>6</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E55">
-        <v>1170</v>
+        <v>5535</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -5077,13 +3568,13 @@
         <v>6</v>
       </c>
       <c r="C56">
-        <v>9.2599999999999991E-3</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>9.2599999999999991E-3</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>4361</v>
+        <v>34438</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -5094,13 +3585,13 @@
         <v>6</v>
       </c>
       <c r="C57">
-        <v>7.4099999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>7.4099999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>3034</v>
+        <v>23425</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -5111,13 +3602,13 @@
         <v>6</v>
       </c>
       <c r="C58">
-        <v>0.14699999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="D58">
-        <v>0.14699999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="E58">
-        <v>2280</v>
+        <v>14907</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -5128,13 +3619,13 @@
         <v>6</v>
       </c>
       <c r="C59">
-        <v>4.4400000000000002E-2</v>
+        <v>8.1500000000000003E-2</v>
       </c>
       <c r="D59">
-        <v>4.4400000000000002E-2</v>
+        <v>8.1500000000000003E-2</v>
       </c>
       <c r="E59">
-        <v>3575</v>
+        <v>28293</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -5151,7 +3642,7 @@
         <v>0.28799999999999998</v>
       </c>
       <c r="E60">
-        <v>939</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -5168,7 +3659,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="E61">
-        <v>3110</v>
+        <v>21625</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -5179,13 +3670,13 @@
         <v>6</v>
       </c>
       <c r="C62">
-        <v>0.13500000000000001</v>
+        <v>9.01E-2</v>
       </c>
       <c r="D62">
-        <v>0.13500000000000001</v>
+        <v>9.01E-2</v>
       </c>
       <c r="E62">
-        <v>3500</v>
+        <v>27612</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -5196,13 +3687,13 @@
         <v>6</v>
       </c>
       <c r="C63">
-        <v>0.14299999999999999</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D63">
-        <v>0.14299999999999999</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="E63">
-        <v>1411</v>
+        <v>6593</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -5219,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1680</v>
+        <v>10748</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -5230,13 +3721,13 @@
         <v>6</v>
       </c>
       <c r="C65">
-        <v>3.7499999999999999E-3</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="D65">
-        <v>3.7499999999999999E-3</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="E65">
-        <v>2871</v>
+        <v>18971</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -5247,13 +3738,13 @@
         <v>6</v>
       </c>
       <c r="C66">
-        <v>4.5699999999999998E-2</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="D66">
-        <v>4.5699999999999998E-2</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="E66">
-        <v>2969</v>
+        <v>22284</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -5264,13 +3755,13 @@
         <v>6</v>
       </c>
       <c r="C67">
-        <v>0.10100000000000001</v>
+        <v>0.215</v>
       </c>
       <c r="D67">
-        <v>0.10100000000000001</v>
+        <v>0.215</v>
       </c>
       <c r="E67">
-        <v>1909</v>
+        <v>11970</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -5281,13 +3772,13 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <v>0.12</v>
+        <v>0.193</v>
       </c>
       <c r="D68">
-        <v>0.12</v>
+        <v>0.193</v>
       </c>
       <c r="E68">
-        <v>2090</v>
+        <v>12463</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -5298,13 +3789,13 @@
         <v>6</v>
       </c>
       <c r="C69">
-        <v>0.188</v>
+        <v>0.109</v>
       </c>
       <c r="D69">
-        <v>0.188</v>
+        <v>0.109</v>
       </c>
       <c r="E69">
-        <v>1240</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -5315,13 +3806,13 @@
         <v>6</v>
       </c>
       <c r="C70">
-        <v>6.1100000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D70">
-        <v>6.1100000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E70">
-        <v>2219</v>
+        <v>15995</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -5332,13 +3823,13 @@
         <v>6</v>
       </c>
       <c r="C71">
-        <v>1.66E-2</v>
+        <v>5.5199999999999999E-2</v>
       </c>
       <c r="D71">
-        <v>1.66E-2</v>
+        <v>5.5199999999999999E-2</v>
       </c>
       <c r="E71">
-        <v>2471</v>
+        <v>15700</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -5349,13 +3840,13 @@
         <v>6</v>
       </c>
       <c r="C72">
-        <v>8.5900000000000004E-2</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="D72">
-        <v>8.5900000000000004E-2</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="E72">
-        <v>2460</v>
+        <v>17044</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -5366,13 +3857,13 @@
         <v>6</v>
       </c>
       <c r="C73">
-        <v>6.4699999999999994E-2</v>
+        <v>0.124</v>
       </c>
       <c r="D73">
-        <v>6.4699999999999994E-2</v>
+        <v>0.124</v>
       </c>
       <c r="E73">
-        <v>1896</v>
+        <v>11450</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -5389,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>6033</v>
+        <v>49413</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -5400,13 +3891,13 @@
         <v>6</v>
       </c>
       <c r="C75">
-        <v>5.3900000000000003E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="D75">
-        <v>5.3900000000000003E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="E75">
-        <v>3101</v>
+        <v>21428</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -5417,13 +3908,13 @@
         <v>6</v>
       </c>
       <c r="C76">
-        <v>5.6899999999999999E-2</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="D76">
-        <v>5.6899999999999999E-2</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="E76">
-        <v>2107</v>
+        <v>14205</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -5440,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>1259</v>
+        <v>6053</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -5457,7 +3948,7 @@
         <v>9.2600000000000002E-2</v>
       </c>
       <c r="E78">
-        <v>1432</v>
+        <v>6429</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -5474,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>3067</v>
+        <v>20217</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -5485,13 +3976,13 @@
         <v>6</v>
       </c>
       <c r="C80">
-        <v>0.47299999999999998</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="D80">
-        <v>0.47299999999999998</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="E80">
-        <v>837</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -5508,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>2869</v>
+        <v>20312</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -5525,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>2405</v>
+        <v>15707</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -5536,13 +4027,13 @@
         <v>6</v>
       </c>
       <c r="C83">
-        <v>6.1600000000000002E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="D83">
-        <v>6.1600000000000002E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="E83">
-        <v>4282</v>
+        <v>34973</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -5553,13 +4044,13 @@
         <v>6</v>
       </c>
       <c r="C84">
-        <v>4.1500000000000002E-2</v>
+        <v>9.2200000000000004E-2</v>
       </c>
       <c r="D84">
-        <v>4.1500000000000002E-2</v>
+        <v>9.2200000000000004E-2</v>
       </c>
       <c r="E84">
-        <v>3351</v>
+        <v>25463</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5570,13 +4061,13 @@
         <v>6</v>
       </c>
       <c r="C85">
-        <v>8.4099999999999994E-2</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="D85">
-        <v>8.4099999999999994E-2</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="E85">
-        <v>1884</v>
+        <v>11795</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -5593,7 +4084,7 @@
         <v>7.3499999999999998E-3</v>
       </c>
       <c r="E86">
-        <v>2875</v>
+        <v>20625</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -5610,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>1477</v>
+        <v>7859</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -5621,13 +4112,13 @@
         <v>6</v>
       </c>
       <c r="C88">
-        <v>5.8999999999999997E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="D88">
-        <v>5.8999999999999997E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="E88">
-        <v>3284</v>
+        <v>25261</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -5638,13 +4129,13 @@
         <v>6</v>
       </c>
       <c r="C89">
-        <v>3.6499999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>3.6499999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>2710</v>
+        <v>20116</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -5661,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>2078</v>
+        <v>14417</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -5678,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>3785</v>
+        <v>29294</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -5689,13 +4180,13 @@
         <v>6</v>
       </c>
       <c r="C92">
-        <v>4.2999999999999997E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="D92">
-        <v>4.2999999999999997E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="E92">
-        <v>2654</v>
+        <v>16993</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -5706,13 +4197,13 @@
         <v>6</v>
       </c>
       <c r="C93">
-        <v>1.6500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>1.6500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>2752</v>
+        <v>19454</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -5729,7 +4220,7 @@
         <v>0.17</v>
       </c>
       <c r="E94">
-        <v>2170</v>
+        <v>13531</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -5746,7 +4237,7 @@
         <v>9.6199999999999994E-2</v>
       </c>
       <c r="E95">
-        <v>2152</v>
+        <v>13977</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5757,13 +4248,13 @@
         <v>6</v>
       </c>
       <c r="C96">
-        <v>0.247</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="D96">
-        <v>0.247</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="E96">
-        <v>1954</v>
+        <v>12453</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -5774,13 +4265,13 @@
         <v>6</v>
       </c>
       <c r="C97">
-        <v>0.24099999999999999</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D97">
-        <v>0.24099999999999999</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="E97">
-        <v>1365</v>
+        <v>7145</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -5791,13 +4282,13 @@
         <v>6</v>
       </c>
       <c r="C98">
-        <v>0.12</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="D98">
-        <v>0.12</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="E98">
-        <v>2771</v>
+        <v>18849</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -5814,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>1603</v>
+        <v>9473</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -5825,13 +4316,13 @@
         <v>6</v>
       </c>
       <c r="C100">
-        <v>9.6500000000000002E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D100">
-        <v>9.6500000000000002E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="E100">
-        <v>2646</v>
+        <v>19026</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -5848,10 +4339,1773 @@
         <v>0</v>
       </c>
       <c r="E101">
+        <v>24531</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2947218-42EB-439A-9121-3BEFC4AD47EC}">
+  <dimension ref="A1:I101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="9" width="15" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3515</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <f>AVERAGE(C:C)</f>
+        <v>6.9888599999999967E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <f>AVERAGE(E:E)</f>
+        <v>2421.1999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0.221</v>
+      </c>
+      <c r="D3">
+        <v>0.221</v>
+      </c>
+      <c r="E3">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>5.3499999999999997E-3</v>
+      </c>
+      <c r="D4">
+        <v>5.3499999999999997E-3</v>
+      </c>
+      <c r="E4">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="E5">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E6">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E7">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>0.151</v>
+      </c>
+      <c r="D11">
+        <v>0.151</v>
+      </c>
+      <c r="E11">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D13">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E13">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="D14">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="E14">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="D17">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="E17">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="D18">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="E18">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="D19">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="E19">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="E21">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="D22">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="E22">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E24">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="D25">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="E25">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="D26">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="E26">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E29">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="D30">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="E30">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="D33">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="E33">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D34">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="E34">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D35">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E35">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>1.11E-2</v>
+      </c>
+      <c r="D36">
+        <v>1.11E-2</v>
+      </c>
+      <c r="E36">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>1.49E-2</v>
+      </c>
+      <c r="D38">
+        <v>1.49E-2</v>
+      </c>
+      <c r="E38">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D40">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E40">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="D41">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E41">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>0.161</v>
+      </c>
+      <c r="D42">
+        <v>0.161</v>
+      </c>
+      <c r="E42">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>0.159</v>
+      </c>
+      <c r="D43">
+        <v>0.159</v>
+      </c>
+      <c r="E43">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D44">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="E44">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>7.9399999999999991E-3</v>
+      </c>
+      <c r="D46">
+        <v>7.9399999999999991E-3</v>
+      </c>
+      <c r="E46">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>0.191</v>
+      </c>
+      <c r="D48">
+        <v>0.191</v>
+      </c>
+      <c r="E48">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="D51">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="E51">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>9.01E-2</v>
+      </c>
+      <c r="D53">
+        <v>9.01E-2</v>
+      </c>
+      <c r="E53">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D54">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E54">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>9.2599999999999991E-3</v>
+      </c>
+      <c r="D56">
+        <v>9.2599999999999991E-3</v>
+      </c>
+      <c r="E56">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>7.4099999999999999E-3</v>
+      </c>
+      <c r="D57">
+        <v>7.4099999999999999E-3</v>
+      </c>
+      <c r="E57">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D58">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E58">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="D59">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="E59">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="D60">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="E60">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="D61">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="E61">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D62">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E62">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D63">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E63">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="D65">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="E65">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="D66">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="E66">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D67">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E67">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>0.12</v>
+      </c>
+      <c r="D68">
+        <v>0.12</v>
+      </c>
+      <c r="E68">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>0.188</v>
+      </c>
+      <c r="D69">
+        <v>0.188</v>
+      </c>
+      <c r="E69">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="D70">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="E70">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>1.66E-2</v>
+      </c>
+      <c r="D71">
+        <v>1.66E-2</v>
+      </c>
+      <c r="E71">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="D72">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="E72">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="D73">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="E73">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>6033</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="D75">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="E75">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="D76">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="E76">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="D78">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="E78">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="D80">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="E80">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="D83">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="E83">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="D84">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="E84">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="D85">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="E85">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>7.3499999999999998E-3</v>
+      </c>
+      <c r="D86">
+        <v>7.3499999999999998E-3</v>
+      </c>
+      <c r="E86">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D88">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E88">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="D89">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="E89">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D92">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E92">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="D93">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="E93">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <v>0.17</v>
+      </c>
+      <c r="D94">
+        <v>0.17</v>
+      </c>
+      <c r="E94">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="D95">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="E95">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>0.247</v>
+      </c>
+      <c r="D96">
+        <v>0.247</v>
+      </c>
+      <c r="E96">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="D97">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="E97">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>0.12</v>
+      </c>
+      <c r="D98">
+        <v>0.12</v>
+      </c>
+      <c r="E98">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="D100">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="E100">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
         <v>3331</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E101" xr:uid="{F2947218-42EB-439A-9121-3BEFC4AD47EC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Experiments/Sprint03/S03-ReleaseTest/Results/S03-ReleaseTest-Results.xlsx
+++ b/Experiments/Sprint03/S03-ReleaseTest/Results/S03-ReleaseTest-Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hons-moorhouse-p\Experiments\Sprint03\S03-ReleaseTest\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8F9A75-715C-41FD-9848-D4D19CCC1322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1CFFC6-97F6-4FA9-A652-3EE58AB74942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="I3:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
